--- a/res/parancsok/parancsok.xlsx
+++ b/res/parancsok/parancsok.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcellszabo/Development/python/spadmin/completer-poc/parancsok/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcellszabo/Development/python/spadmin/res/parancsok/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B3F95E-4E5C-9F46-AEE1-295BFC0CD64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B342C5F9-36BB-E746-A3D0-37381497DBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19500" xr2:uid="{08B205EA-7B00-9242-AF4A-92FAE1387DC6}"/>
   </bookViews>
@@ -1381,10 +1381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9E70CC-4D98-5D46-8A30-85EFDC08FEFA}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F457"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="187" workbookViewId="0">
-      <selection activeCell="F160" sqref="F160"/>
+    <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1415,7 +1416,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" hidden="1">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1430,7 +1431,7 @@
         <v>ACCept -&gt; Date</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" hidden="1">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1446,7 +1447,7 @@
         <v>ACTivate -&gt; POlicyset</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" hidden="1">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1462,7 +1463,7 @@
         <v>ASsign -&gt; DEFMGmtclass</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" hidden="1">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -1478,7 +1479,7 @@
         <v>BAckup -&gt; DB</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" hidden="1">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1494,7 +1495,7 @@
         <v>BAckup -&gt; DEVCONFig</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" hidden="1">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -1510,7 +1511,7 @@
         <v>BAckup -&gt; STGpool</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" hidden="1">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -1526,7 +1527,7 @@
         <v>BAckup -&gt; VOLHistory</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" hidden="1">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -1542,7 +1543,7 @@
         <v>CHECKIn -&gt; LIBVolume</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" hidden="1">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -1558,7 +1559,7 @@
         <v>DECommission -&gt; Node</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" hidden="1">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -1574,7 +1575,7 @@
         <v>DECommission -&gt; VM</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" hidden="1">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1590,7 +1591,7 @@
         <v>DEFine -&gt; ASSOCiation</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" hidden="1">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1606,7 +1607,7 @@
         <v>DEFine -&gt; DEVclass</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" hidden="1">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1622,7 +1623,7 @@
         <v>DELete -&gt; STGpool</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" hidden="1">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1638,7 +1639,7 @@
         <v>Query -&gt; ACtlog</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" hidden="1">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1654,7 +1655,7 @@
         <v>Query -&gt; FIlespace</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" hidden="1">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1670,7 +1671,7 @@
         <v>Query -&gt; LOG</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" hidden="1">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1686,7 +1687,7 @@
         <v>Query -&gt; Node</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" hidden="1">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1702,7 +1703,7 @@
         <v>Query -&gt; OPTion</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" hidden="1">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1718,7 +1719,7 @@
         <v>Query -&gt; PATH</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" hidden="1">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1734,7 +1735,7 @@
         <v>Query -&gt; PRocess</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" hidden="1">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1750,7 +1751,7 @@
         <v>Query -&gt; SEssion</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" hidden="1">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1766,7 +1767,7 @@
         <v>Query -&gt; STGpool</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" hidden="1">
       <c r="A24" t="s">
         <v>203</v>
       </c>
@@ -1782,7 +1783,7 @@
         <v>RECommission -&gt; Node</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" hidden="1">
       <c r="A25" t="s">
         <v>203</v>
       </c>
@@ -1798,7 +1799,7 @@
         <v>RECommission -&gt; VM</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" hidden="1">
       <c r="A26" t="s">
         <v>209</v>
       </c>
@@ -1814,7 +1815,7 @@
         <v>REMove -&gt; Node</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" hidden="1">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -1830,7 +1831,7 @@
         <v>Set -&gt; ACCounting</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" hidden="1">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1846,7 +1847,7 @@
         <v>Set -&gt; ACTlogretention</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" hidden="1">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1862,7 +1863,7 @@
         <v>Set -&gt; ALERTACtiveduration</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" hidden="1">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1878,7 +1879,7 @@
         <v>Set -&gt; ALERTCLosedduration</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" hidden="1">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -1894,7 +1895,7 @@
         <v>Set -&gt; ALERTEMail</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" hidden="1">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -1910,7 +1911,7 @@
         <v>Set -&gt; ALERTEMAILFRomaddr</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" hidden="1">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1926,7 +1927,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" hidden="1">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1945,7 +1946,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" hidden="1">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1964,7 +1965,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" hidden="1">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1983,7 +1984,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" hidden="1">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -2002,7 +2003,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" hidden="1">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2021,7 +2022,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" hidden="1">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2040,7 +2041,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" hidden="1">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -2056,7 +2057,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" hidden="1">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -2072,7 +2073,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" hidden="1">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -2091,7 +2092,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" hidden="1">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -2110,7 +2111,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" hidden="1">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -2129,7 +2130,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" hidden="1">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -2148,7 +2149,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" hidden="1">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -2167,7 +2168,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" hidden="1">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -2186,7 +2187,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" hidden="1">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -2224,7 +2225,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" hidden="1">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -2240,7 +2241,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" hidden="1">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -2256,7 +2257,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" hidden="1">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -2275,7 +2276,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" hidden="1">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -2294,7 +2295,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" hidden="1">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -2313,7 +2314,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" hidden="1">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -2332,7 +2333,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" hidden="1">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -2351,7 +2352,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" hidden="1">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -2370,7 +2371,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" hidden="1">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -2389,7 +2390,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" hidden="1">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -2408,7 +2409,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" hidden="1">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -2427,7 +2428,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" hidden="1">
       <c r="A61" t="s">
         <v>71</v>
       </c>
@@ -2443,7 +2444,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" hidden="1">
       <c r="A62" t="s">
         <v>75</v>
       </c>
@@ -2459,7 +2460,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" hidden="1">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -2494,7 +2495,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" hidden="1">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -2510,7 +2511,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" hidden="1">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -2526,7 +2527,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" hidden="1">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -2542,7 +2543,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" hidden="1">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -2558,7 +2559,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" hidden="1">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -2593,7 +2594,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" hidden="1">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -2628,7 +2629,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" hidden="1">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -2644,7 +2645,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" hidden="1">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -2660,7 +2661,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" hidden="1">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -2676,7 +2677,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" hidden="1">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -2711,7 +2712,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" hidden="1">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -2727,7 +2728,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" hidden="1">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -2762,7 +2763,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" hidden="1">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -2778,7 +2779,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" hidden="1">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -2794,7 +2795,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" hidden="1">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -2848,7 +2849,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" hidden="1">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -2864,7 +2865,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" hidden="1">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -2880,7 +2881,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" hidden="1">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -2896,7 +2897,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" hidden="1">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -2912,7 +2913,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" hidden="1">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -2947,7 +2948,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" hidden="1">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -2963,7 +2964,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" hidden="1">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -2998,7 +2999,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" hidden="1">
       <c r="A95" t="s">
         <v>4</v>
       </c>
@@ -3014,7 +3015,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" hidden="1">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -3030,7 +3031,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" hidden="1">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -3084,7 +3085,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" hidden="1">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -3100,7 +3101,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" hidden="1">
       <c r="A101" t="s">
         <v>4</v>
       </c>
@@ -3116,7 +3117,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" hidden="1">
       <c r="A102" t="s">
         <v>4</v>
       </c>
@@ -3132,7 +3133,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" hidden="1">
       <c r="A103" t="s">
         <v>4</v>
       </c>
@@ -3148,7 +3149,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" hidden="1">
       <c r="A104" t="s">
         <v>4</v>
       </c>
@@ -3164,7 +3165,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" hidden="1">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -3183,7 +3184,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" hidden="1">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -3202,7 +3203,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" hidden="1">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -3221,7 +3222,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" hidden="1">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -3240,7 +3241,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" hidden="1">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -3259,7 +3260,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" hidden="1">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -3278,7 +3279,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" hidden="1">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -3297,7 +3298,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" hidden="1">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -3316,7 +3317,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" hidden="1">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -3335,7 +3336,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" hidden="1">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -3354,7 +3355,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" hidden="1">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -3373,7 +3374,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" hidden="1">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -3392,7 +3393,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" hidden="1">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -3411,7 +3412,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" hidden="1">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -3430,7 +3431,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" hidden="1">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -3449,7 +3450,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" hidden="1">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -3468,7 +3469,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" hidden="1">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -3487,7 +3488,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" hidden="1">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -3506,7 +3507,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" hidden="1">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -3525,7 +3526,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" hidden="1">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -3544,7 +3545,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" hidden="1">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -3563,7 +3564,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" hidden="1">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -3582,7 +3583,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" hidden="1">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -3601,7 +3602,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" hidden="1">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -3620,7 +3621,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" hidden="1">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -3639,7 +3640,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" hidden="1">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -3658,7 +3659,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" hidden="1">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -3677,7 +3678,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" hidden="1">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -3696,7 +3697,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" hidden="1">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -3715,7 +3716,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" hidden="1">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -3734,7 +3735,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" hidden="1">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -3753,7 +3754,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" hidden="1">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -3772,7 +3773,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" hidden="1">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -3791,7 +3792,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" hidden="1">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -3810,7 +3811,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" hidden="1">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -3829,7 +3830,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" hidden="1">
       <c r="A140" t="s">
         <v>7</v>
       </c>
@@ -3848,7 +3849,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" hidden="1">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -3867,7 +3868,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" hidden="1">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -3886,7 +3887,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" hidden="1">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -3905,7 +3906,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" hidden="1">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -3924,7 +3925,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" hidden="1">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -3943,7 +3944,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" hidden="1">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -3962,7 +3963,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" hidden="1">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -3981,7 +3982,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" hidden="1">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -4000,7 +4001,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" hidden="1">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -4019,7 +4020,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" hidden="1">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -4038,7 +4039,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" hidden="1">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -4057,7 +4058,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" hidden="1">
       <c r="A152" t="s">
         <v>112</v>
       </c>
@@ -4073,7 +4074,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" hidden="1">
       <c r="A153" t="s">
         <v>112</v>
       </c>
@@ -4089,7 +4090,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" hidden="1">
       <c r="A154" t="s">
         <v>112</v>
       </c>
@@ -4105,7 +4106,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" hidden="1">
       <c r="A155" t="s">
         <v>114</v>
       </c>
@@ -4121,7 +4122,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" hidden="1">
       <c r="A156" t="s">
         <v>115</v>
       </c>
@@ -4137,7 +4138,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" hidden="1">
       <c r="A157" t="s">
         <v>8</v>
       </c>
@@ -4153,7 +4154,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" hidden="1">
       <c r="A158" t="s">
         <v>8</v>
       </c>
@@ -4169,7 +4170,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" hidden="1">
       <c r="A159" t="s">
         <v>8</v>
       </c>
@@ -4188,7 +4189,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" hidden="1">
       <c r="A160" t="s">
         <v>117</v>
       </c>
@@ -4204,7 +4205,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" hidden="1">
       <c r="A161" t="s">
         <v>10</v>
       </c>
@@ -4220,7 +4221,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" hidden="1">
       <c r="A162" t="s">
         <v>118</v>
       </c>
@@ -4239,7 +4240,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" hidden="1">
       <c r="A163" t="s">
         <v>51</v>
       </c>
@@ -4255,7 +4256,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" hidden="1">
       <c r="A164" t="s">
         <v>51</v>
       </c>
@@ -4271,7 +4272,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" hidden="1">
       <c r="A165" t="s">
         <v>51</v>
       </c>
@@ -4287,7 +4288,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" hidden="1">
       <c r="A166" t="s">
         <v>51</v>
       </c>
@@ -4303,7 +4304,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" hidden="1">
       <c r="A167" t="s">
         <v>123</v>
       </c>
@@ -4319,7 +4320,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" hidden="1">
       <c r="A168" t="s">
         <v>125</v>
       </c>
@@ -4335,7 +4336,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" hidden="1">
       <c r="A169" t="s">
         <v>125</v>
       </c>
@@ -4351,7 +4352,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" hidden="1">
       <c r="A170" t="s">
         <v>125</v>
       </c>
@@ -4367,7 +4368,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" hidden="1">
       <c r="A171" t="s">
         <v>125</v>
       </c>
@@ -4383,7 +4384,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" hidden="1">
       <c r="A172" t="s">
         <v>128</v>
       </c>
@@ -4399,7 +4400,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" hidden="1">
       <c r="A173" t="s">
         <v>128</v>
       </c>
@@ -4415,7 +4416,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" hidden="1">
       <c r="A174" t="s">
         <v>131</v>
       </c>
@@ -4431,7 +4432,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" hidden="1">
       <c r="A175" t="s">
         <v>132</v>
       </c>
@@ -4447,7 +4448,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" hidden="1">
       <c r="A176" t="s">
         <v>134</v>
       </c>
@@ -4463,7 +4464,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" hidden="1">
       <c r="A177" t="s">
         <v>134</v>
       </c>
@@ -4479,7 +4480,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" hidden="1">
       <c r="A178" t="s">
         <v>134</v>
       </c>
@@ -4495,7 +4496,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" hidden="1">
       <c r="A179" t="s">
         <v>134</v>
       </c>
@@ -4511,7 +4512,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" hidden="1">
       <c r="A180" t="s">
         <v>135</v>
       </c>
@@ -4527,7 +4528,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" hidden="1">
       <c r="A181" t="s">
         <v>137</v>
       </c>
@@ -4543,7 +4544,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" hidden="1">
       <c r="A182" t="s">
         <v>139</v>
       </c>
@@ -4559,7 +4560,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" hidden="1">
       <c r="A183" t="s">
         <v>141</v>
       </c>
@@ -4575,7 +4576,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" hidden="1">
       <c r="A184" t="s">
         <v>142</v>
       </c>
@@ -4591,7 +4592,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" hidden="1">
       <c r="A185" t="s">
         <v>144</v>
       </c>
@@ -4607,7 +4608,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" hidden="1">
       <c r="A186" t="s">
         <v>144</v>
       </c>
@@ -4623,7 +4624,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" hidden="1">
       <c r="A187" t="s">
         <v>144</v>
       </c>
@@ -4639,7 +4640,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" hidden="1">
       <c r="A188" t="s">
         <v>145</v>
       </c>
@@ -4655,7 +4656,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" hidden="1">
       <c r="A189" t="s">
         <v>146</v>
       </c>
@@ -4693,7 +4694,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" hidden="1">
       <c r="A191" t="s">
         <v>146</v>
       </c>
@@ -4709,7 +4710,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" hidden="1">
       <c r="A192" t="s">
         <v>146</v>
       </c>
@@ -4725,7 +4726,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" hidden="1">
       <c r="A193" t="s">
         <v>146</v>
       </c>
@@ -4763,7 +4764,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" hidden="1">
       <c r="A195" t="s">
         <v>146</v>
       </c>
@@ -4779,7 +4780,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" hidden="1">
       <c r="A196" t="s">
         <v>152</v>
       </c>
@@ -4795,7 +4796,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" hidden="1">
       <c r="A197" t="s">
         <v>154</v>
       </c>
@@ -4811,7 +4812,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" hidden="1">
       <c r="A198" t="s">
         <v>156</v>
       </c>
@@ -4830,7 +4831,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" hidden="1">
       <c r="A199" t="s">
         <v>157</v>
       </c>
@@ -4846,7 +4847,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" hidden="1">
       <c r="A200" t="s">
         <v>13</v>
       </c>
@@ -4862,7 +4863,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" hidden="1">
       <c r="A201" t="s">
         <v>13</v>
       </c>
@@ -4878,7 +4879,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" hidden="1">
       <c r="A202" t="s">
         <v>13</v>
       </c>
@@ -4894,7 +4895,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" hidden="1">
       <c r="A203" t="s">
         <v>13</v>
       </c>
@@ -4910,7 +4911,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" hidden="1">
       <c r="A204" t="s">
         <v>13</v>
       </c>
@@ -4926,7 +4927,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" hidden="1">
       <c r="A205" t="s">
         <v>13</v>
       </c>
@@ -4942,7 +4943,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" hidden="1">
       <c r="A206" t="s">
         <v>13</v>
       </c>
@@ -4958,7 +4959,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" hidden="1">
       <c r="A207" t="s">
         <v>13</v>
       </c>
@@ -4974,7 +4975,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" hidden="1">
       <c r="A208" t="s">
         <v>13</v>
       </c>
@@ -4990,7 +4991,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" hidden="1">
       <c r="A209" t="s">
         <v>13</v>
       </c>
@@ -5006,7 +5007,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" hidden="1">
       <c r="A210" t="s">
         <v>13</v>
       </c>
@@ -5022,7 +5023,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" hidden="1">
       <c r="A211" t="s">
         <v>13</v>
       </c>
@@ -5038,7 +5039,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" hidden="1">
       <c r="A212" t="s">
         <v>13</v>
       </c>
@@ -5054,7 +5055,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" hidden="1">
       <c r="A213" t="s">
         <v>13</v>
       </c>
@@ -5070,7 +5071,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" hidden="1">
       <c r="A214" t="s">
         <v>13</v>
       </c>
@@ -5086,7 +5087,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" hidden="1">
       <c r="A215" t="s">
         <v>13</v>
       </c>
@@ -5102,7 +5103,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" hidden="1">
       <c r="A216" t="s">
         <v>13</v>
       </c>
@@ -5118,7 +5119,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" hidden="1">
       <c r="A217" t="s">
         <v>13</v>
       </c>
@@ -5134,7 +5135,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" hidden="1">
       <c r="A218" t="s">
         <v>13</v>
       </c>
@@ -5150,7 +5151,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" hidden="1">
       <c r="A219" t="s">
         <v>170</v>
       </c>
@@ -5166,7 +5167,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" hidden="1">
       <c r="A220" t="s">
         <v>13</v>
       </c>
@@ -5182,7 +5183,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" hidden="1">
       <c r="A221" t="s">
         <v>13</v>
       </c>
@@ -5198,7 +5199,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" hidden="1">
       <c r="A222" t="s">
         <v>13</v>
       </c>
@@ -5214,7 +5215,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" hidden="1">
       <c r="A223" t="s">
         <v>13</v>
       </c>
@@ -5230,7 +5231,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" hidden="1">
       <c r="A224" t="s">
         <v>13</v>
       </c>
@@ -5246,7 +5247,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" hidden="1">
       <c r="A225" t="s">
         <v>13</v>
       </c>
@@ -5262,7 +5263,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" hidden="1">
       <c r="A226" t="s">
         <v>13</v>
       </c>
@@ -5278,7 +5279,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" hidden="1">
       <c r="A227" t="s">
         <v>13</v>
       </c>
@@ -5294,7 +5295,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" hidden="1">
       <c r="A228" t="s">
         <v>13</v>
       </c>
@@ -5310,7 +5311,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" hidden="1">
       <c r="A229" t="s">
         <v>13</v>
       </c>
@@ -5326,7 +5327,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" hidden="1">
       <c r="A230" t="s">
         <v>13</v>
       </c>
@@ -5342,7 +5343,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" hidden="1">
       <c r="A231" t="s">
         <v>13</v>
       </c>
@@ -5358,7 +5359,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" hidden="1">
       <c r="A232" t="s">
         <v>13</v>
       </c>
@@ -5374,7 +5375,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" hidden="1">
       <c r="A233" t="s">
         <v>13</v>
       </c>
@@ -5390,7 +5391,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" hidden="1">
       <c r="A234" t="s">
         <v>13</v>
       </c>
@@ -5406,7 +5407,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" hidden="1">
       <c r="A235" t="s">
         <v>13</v>
       </c>
@@ -5422,7 +5423,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" hidden="1">
       <c r="A236" t="s">
         <v>13</v>
       </c>
@@ -5438,7 +5439,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" hidden="1">
       <c r="A237" t="s">
         <v>13</v>
       </c>
@@ -5454,7 +5455,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" hidden="1">
       <c r="A238" t="s">
         <v>13</v>
       </c>
@@ -5470,7 +5471,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" hidden="1">
       <c r="A239" t="s">
         <v>13</v>
       </c>
@@ -5486,7 +5487,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" hidden="1">
       <c r="A240" t="s">
         <v>13</v>
       </c>
@@ -5502,7 +5503,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" hidden="1">
       <c r="A241" t="s">
         <v>13</v>
       </c>
@@ -5518,7 +5519,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" hidden="1">
       <c r="A242" t="s">
         <v>13</v>
       </c>
@@ -5534,7 +5535,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" hidden="1">
       <c r="A243" t="s">
         <v>13</v>
       </c>
@@ -5550,7 +5551,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" hidden="1">
       <c r="A244" t="s">
         <v>13</v>
       </c>
@@ -5566,7 +5567,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" hidden="1">
       <c r="A245" t="s">
         <v>13</v>
       </c>
@@ -5582,7 +5583,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" hidden="1">
       <c r="A246" t="s">
         <v>13</v>
       </c>
@@ -5598,7 +5599,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" hidden="1">
       <c r="A247" t="s">
         <v>13</v>
       </c>
@@ -5614,7 +5615,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" hidden="1">
       <c r="A248" t="s">
         <v>13</v>
       </c>
@@ -5630,7 +5631,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" hidden="1">
       <c r="A249" t="s">
         <v>13</v>
       </c>
@@ -5646,7 +5647,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" hidden="1">
       <c r="A250" t="s">
         <v>13</v>
       </c>
@@ -5662,7 +5663,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" hidden="1">
       <c r="A251" t="s">
         <v>13</v>
       </c>
@@ -5678,7 +5679,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" hidden="1">
       <c r="A252" t="s">
         <v>13</v>
       </c>
@@ -5694,7 +5695,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" hidden="1">
       <c r="A253" t="s">
         <v>13</v>
       </c>
@@ -5710,7 +5711,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" hidden="1">
       <c r="A254" t="s">
         <v>13</v>
       </c>
@@ -5726,7 +5727,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" hidden="1">
       <c r="A255" t="s">
         <v>13</v>
       </c>
@@ -5742,7 +5743,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" hidden="1">
       <c r="A256" t="s">
         <v>13</v>
       </c>
@@ -5758,7 +5759,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" hidden="1">
       <c r="A257" t="s">
         <v>13</v>
       </c>
@@ -5774,7 +5775,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" hidden="1">
       <c r="A258" t="s">
         <v>13</v>
       </c>
@@ -5790,7 +5791,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" hidden="1">
       <c r="A259" t="s">
         <v>13</v>
       </c>
@@ -5806,7 +5807,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" hidden="1">
       <c r="A260" t="s">
         <v>13</v>
       </c>
@@ -5822,7 +5823,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" hidden="1">
       <c r="A261" t="s">
         <v>13</v>
       </c>
@@ -5838,7 +5839,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" hidden="1">
       <c r="A262" t="s">
         <v>13</v>
       </c>
@@ -5854,7 +5855,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" hidden="1">
       <c r="A263" t="s">
         <v>13</v>
       </c>
@@ -5870,7 +5871,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" hidden="1">
       <c r="A264" t="s">
         <v>13</v>
       </c>
@@ -5886,7 +5887,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" hidden="1">
       <c r="A265" t="s">
         <v>13</v>
       </c>
@@ -5902,7 +5903,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" hidden="1">
       <c r="A266" t="s">
         <v>13</v>
       </c>
@@ -5918,7 +5919,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" hidden="1">
       <c r="A267" t="s">
         <v>13</v>
       </c>
@@ -5934,7 +5935,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" hidden="1">
       <c r="A268" t="s">
         <v>13</v>
       </c>
@@ -5950,7 +5951,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" hidden="1">
       <c r="A269" t="s">
         <v>13</v>
       </c>
@@ -5966,7 +5967,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" hidden="1">
       <c r="A270" t="s">
         <v>13</v>
       </c>
@@ -5982,7 +5983,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" hidden="1">
       <c r="A271" t="s">
         <v>13</v>
       </c>
@@ -5998,7 +5999,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" hidden="1">
       <c r="A272" t="s">
         <v>13</v>
       </c>
@@ -6014,7 +6015,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" hidden="1">
       <c r="A273" t="s">
         <v>170</v>
       </c>
@@ -6030,7 +6031,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" hidden="1">
       <c r="A274" t="s">
         <v>170</v>
       </c>
@@ -6046,7 +6047,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" hidden="1">
       <c r="A275" t="s">
         <v>13</v>
       </c>
@@ -6062,7 +6063,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" hidden="1">
       <c r="A276" t="s">
         <v>13</v>
       </c>
@@ -6078,7 +6079,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" hidden="1">
       <c r="A277" t="s">
         <v>13</v>
       </c>
@@ -6094,7 +6095,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" hidden="1">
       <c r="A278" t="s">
         <v>13</v>
       </c>
@@ -6110,7 +6111,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" hidden="1">
       <c r="A279" t="s">
         <v>13</v>
       </c>
@@ -6126,7 +6127,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" hidden="1">
       <c r="A280" t="s">
         <v>13</v>
       </c>
@@ -6142,7 +6143,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" hidden="1">
       <c r="A281" t="s">
         <v>13</v>
       </c>
@@ -6158,7 +6159,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" hidden="1">
       <c r="A282" t="s">
         <v>13</v>
       </c>
@@ -6174,7 +6175,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" hidden="1">
       <c r="A283" t="s">
         <v>13</v>
       </c>
@@ -6190,7 +6191,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" hidden="1">
       <c r="A284" t="s">
         <v>13</v>
       </c>
@@ -6206,7 +6207,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" hidden="1">
       <c r="A285" t="s">
         <v>13</v>
       </c>
@@ -6222,7 +6223,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" hidden="1">
       <c r="A286" t="s">
         <v>13</v>
       </c>
@@ -6238,7 +6239,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" hidden="1">
       <c r="A287" t="s">
         <v>13</v>
       </c>
@@ -6254,7 +6255,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" hidden="1">
       <c r="A288" t="s">
         <v>13</v>
       </c>
@@ -6270,7 +6271,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" hidden="1">
       <c r="A289" t="s">
         <v>202</v>
       </c>
@@ -6286,7 +6287,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" hidden="1">
       <c r="A290" t="s">
         <v>204</v>
       </c>
@@ -6302,7 +6303,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" hidden="1">
       <c r="A291" t="s">
         <v>206</v>
       </c>
@@ -6318,7 +6319,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" hidden="1">
       <c r="A292" t="s">
         <v>206</v>
       </c>
@@ -6334,7 +6335,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" hidden="1">
       <c r="A293" t="s">
         <v>206</v>
       </c>
@@ -6350,7 +6351,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" hidden="1">
       <c r="A294" t="s">
         <v>207</v>
       </c>
@@ -6366,7 +6367,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" hidden="1">
       <c r="A295" t="s">
         <v>208</v>
       </c>
@@ -6382,7 +6383,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" hidden="1">
       <c r="A296" t="s">
         <v>209</v>
       </c>
@@ -6401,7 +6402,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" hidden="1">
       <c r="A297" t="s">
         <v>209</v>
       </c>
@@ -6420,7 +6421,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" hidden="1">
       <c r="A298" t="s">
         <v>209</v>
       </c>
@@ -6439,7 +6440,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" hidden="1">
       <c r="A299" t="s">
         <v>209</v>
       </c>
@@ -6458,7 +6459,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" hidden="1">
       <c r="A300" t="s">
         <v>209</v>
       </c>
@@ -6477,7 +6478,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" hidden="1">
       <c r="A301" t="s">
         <v>211</v>
       </c>
@@ -6496,7 +6497,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" hidden="1">
       <c r="A302" t="s">
         <v>211</v>
       </c>
@@ -6515,7 +6516,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" hidden="1">
       <c r="A303" t="s">
         <v>211</v>
       </c>
@@ -6534,7 +6535,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" hidden="1">
       <c r="A304" t="s">
         <v>211</v>
       </c>
@@ -6553,7 +6554,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:6" hidden="1">
       <c r="A305" t="s">
         <v>211</v>
       </c>
@@ -6572,7 +6573,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:6" hidden="1">
       <c r="A306" t="s">
         <v>211</v>
       </c>
@@ -6591,7 +6592,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:6" hidden="1">
       <c r="A307" t="s">
         <v>211</v>
       </c>
@@ -6610,7 +6611,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:6" hidden="1">
       <c r="A308" t="s">
         <v>211</v>
       </c>
@@ -6629,7 +6630,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:6" hidden="1">
       <c r="A309" t="s">
         <v>212</v>
       </c>
@@ -6645,7 +6646,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" spans="1:6" hidden="1">
       <c r="A310" t="s">
         <v>213</v>
       </c>
@@ -6661,7 +6662,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:6" hidden="1">
       <c r="A311" t="s">
         <v>214</v>
       </c>
@@ -6677,7 +6678,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:6" hidden="1">
       <c r="A312" t="s">
         <v>216</v>
       </c>
@@ -6693,7 +6694,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:6" hidden="1">
       <c r="A313" t="s">
         <v>218</v>
       </c>
@@ -6709,7 +6710,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" hidden="1">
       <c r="A314" t="s">
         <v>218</v>
       </c>
@@ -6725,7 +6726,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" spans="1:6" hidden="1">
       <c r="A315" t="s">
         <v>218</v>
       </c>
@@ -6741,7 +6742,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:6" hidden="1">
       <c r="A316" t="s">
         <v>219</v>
       </c>
@@ -6757,7 +6758,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:6" hidden="1">
       <c r="A317" t="s">
         <v>220</v>
       </c>
@@ -6773,7 +6774,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:6" hidden="1">
       <c r="A318" t="s">
         <v>220</v>
       </c>
@@ -6789,7 +6790,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="319" spans="1:6">
+    <row r="319" spans="1:6" hidden="1">
       <c r="A319" t="s">
         <v>14</v>
       </c>
@@ -6808,7 +6809,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="320" spans="1:6">
+    <row r="320" spans="1:6" hidden="1">
       <c r="A320" t="s">
         <v>14</v>
       </c>
@@ -6827,7 +6828,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="321" spans="1:6">
+    <row r="321" spans="1:6" hidden="1">
       <c r="A321" t="s">
         <v>14</v>
       </c>
@@ -6846,7 +6847,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="322" spans="1:6">
+    <row r="322" spans="1:6" hidden="1">
       <c r="A322" t="s">
         <v>14</v>
       </c>
@@ -6865,7 +6866,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="323" spans="1:6">
+    <row r="323" spans="1:6" hidden="1">
       <c r="A323" t="s">
         <v>14</v>
       </c>
@@ -6884,7 +6885,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="324" spans="1:6">
+    <row r="324" spans="1:6" hidden="1">
       <c r="A324" t="s">
         <v>14</v>
       </c>
@@ -6903,7 +6904,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="325" spans="1:6">
+    <row r="325" spans="1:6" hidden="1">
       <c r="A325" t="s">
         <v>14</v>
       </c>
@@ -6922,7 +6923,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="326" spans="1:6">
+    <row r="326" spans="1:6" hidden="1">
       <c r="A326" t="s">
         <v>14</v>
       </c>
@@ -6941,7 +6942,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:6">
+    <row r="327" spans="1:6" hidden="1">
       <c r="A327" t="s">
         <v>14</v>
       </c>
@@ -6960,7 +6961,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="328" spans="1:6">
+    <row r="328" spans="1:6" hidden="1">
       <c r="A328" t="s">
         <v>236</v>
       </c>
@@ -6979,7 +6980,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="329" spans="1:6">
+    <row r="329" spans="1:6" hidden="1">
       <c r="A329" t="s">
         <v>14</v>
       </c>
@@ -6998,7 +6999,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="330" spans="1:6">
+    <row r="330" spans="1:6" hidden="1">
       <c r="A330" t="s">
         <v>14</v>
       </c>
@@ -7017,7 +7018,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="331" spans="1:6">
+    <row r="331" spans="1:6" hidden="1">
       <c r="A331" t="s">
         <v>14</v>
       </c>
@@ -7033,7 +7034,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="332" spans="1:6">
+    <row r="332" spans="1:6" hidden="1">
       <c r="A332" t="s">
         <v>14</v>
       </c>
@@ -7049,7 +7050,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="333" spans="1:6">
+    <row r="333" spans="1:6" hidden="1">
       <c r="A333" t="s">
         <v>14</v>
       </c>
@@ -7065,7 +7066,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="334" spans="1:6">
+    <row r="334" spans="1:6" hidden="1">
       <c r="A334" t="s">
         <v>236</v>
       </c>
@@ -7081,7 +7082,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="335" spans="1:6">
+    <row r="335" spans="1:6" hidden="1">
       <c r="A335" t="s">
         <v>14</v>
       </c>
@@ -7097,7 +7098,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="336" spans="1:6">
+    <row r="336" spans="1:6" hidden="1">
       <c r="A336" t="s">
         <v>236</v>
       </c>
@@ -7113,7 +7114,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" hidden="1">
       <c r="A337" t="s">
         <v>236</v>
       </c>
@@ -7129,7 +7130,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" hidden="1">
       <c r="A338" t="s">
         <v>236</v>
       </c>
@@ -7145,7 +7146,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" hidden="1">
       <c r="A339" t="s">
         <v>236</v>
       </c>
@@ -7161,7 +7162,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" hidden="1">
       <c r="A340" t="s">
         <v>14</v>
       </c>
@@ -7177,7 +7178,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" hidden="1">
       <c r="A341" t="s">
         <v>14</v>
       </c>
@@ -7193,7 +7194,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" hidden="1">
       <c r="A342" t="s">
         <v>14</v>
       </c>
@@ -7209,7 +7210,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" hidden="1">
       <c r="A343" t="s">
         <v>14</v>
       </c>
@@ -7225,7 +7226,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" hidden="1">
       <c r="A344" t="s">
         <v>14</v>
       </c>
@@ -7241,7 +7242,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" hidden="1">
       <c r="A345" t="s">
         <v>14</v>
       </c>
@@ -7257,7 +7258,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" hidden="1">
       <c r="A346" t="s">
         <v>14</v>
       </c>
@@ -7273,7 +7274,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" hidden="1">
       <c r="A347" t="s">
         <v>14</v>
       </c>
@@ -7289,7 +7290,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" hidden="1">
       <c r="A348" t="s">
         <v>14</v>
       </c>
@@ -7305,7 +7306,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" hidden="1">
       <c r="A349" t="s">
         <v>14</v>
       </c>
@@ -7321,7 +7322,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" hidden="1">
       <c r="A350" t="s">
         <v>14</v>
       </c>
@@ -7337,7 +7338,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" hidden="1">
       <c r="A351" t="s">
         <v>14</v>
       </c>
@@ -7353,7 +7354,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" hidden="1">
       <c r="A352" t="s">
         <v>14</v>
       </c>
@@ -7369,7 +7370,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" hidden="1">
       <c r="A353" t="s">
         <v>14</v>
       </c>
@@ -7385,7 +7386,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" hidden="1">
       <c r="A354" t="s">
         <v>14</v>
       </c>
@@ -7401,7 +7402,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" hidden="1">
       <c r="A355" t="s">
         <v>14</v>
       </c>
@@ -7417,7 +7418,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" hidden="1">
       <c r="A356" t="s">
         <v>236</v>
       </c>
@@ -7433,7 +7434,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" hidden="1">
       <c r="A357" t="s">
         <v>14</v>
       </c>
@@ -7449,7 +7450,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" hidden="1">
       <c r="A358" t="s">
         <v>236</v>
       </c>
@@ -7465,7 +7466,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" hidden="1">
       <c r="A359" t="s">
         <v>14</v>
       </c>
@@ -7481,7 +7482,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" hidden="1">
       <c r="A360" t="s">
         <v>14</v>
       </c>
@@ -7497,7 +7498,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" hidden="1">
       <c r="A361" t="s">
         <v>14</v>
       </c>
@@ -7513,7 +7514,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" hidden="1">
       <c r="A362" t="s">
         <v>14</v>
       </c>
@@ -7529,7 +7530,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" hidden="1">
       <c r="A363" t="s">
         <v>14</v>
       </c>
@@ -7545,7 +7546,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" hidden="1">
       <c r="A364" t="s">
         <v>14</v>
       </c>
@@ -7561,7 +7562,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" hidden="1">
       <c r="A365" t="s">
         <v>14</v>
       </c>
@@ -7577,7 +7578,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" hidden="1">
       <c r="A366" t="s">
         <v>14</v>
       </c>
@@ -7593,7 +7594,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" hidden="1">
       <c r="A367" t="s">
         <v>14</v>
       </c>
@@ -7609,7 +7610,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" hidden="1">
       <c r="A368" t="s">
         <v>14</v>
       </c>
@@ -7625,7 +7626,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" hidden="1">
       <c r="A369" t="s">
         <v>14</v>
       </c>
@@ -7641,7 +7642,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" hidden="1">
       <c r="A370" t="s">
         <v>14</v>
       </c>
@@ -7657,7 +7658,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" hidden="1">
       <c r="A371" t="s">
         <v>14</v>
       </c>
@@ -7673,7 +7674,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" hidden="1">
       <c r="A372" t="s">
         <v>14</v>
       </c>
@@ -7689,7 +7690,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" hidden="1">
       <c r="A373" t="s">
         <v>14</v>
       </c>
@@ -7705,7 +7706,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" hidden="1">
       <c r="A374" t="s">
         <v>14</v>
       </c>
@@ -7721,7 +7722,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" hidden="1">
       <c r="A375" t="s">
         <v>236</v>
       </c>
@@ -7737,7 +7738,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" hidden="1">
       <c r="A376" t="s">
         <v>14</v>
       </c>
@@ -7753,7 +7754,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" hidden="1">
       <c r="A377" t="s">
         <v>14</v>
       </c>
@@ -7769,7 +7770,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" hidden="1">
       <c r="A378" t="s">
         <v>14</v>
       </c>
@@ -7785,7 +7786,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" hidden="1">
       <c r="A379" t="s">
         <v>14</v>
       </c>
@@ -7801,7 +7802,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" hidden="1">
       <c r="A380" t="s">
         <v>14</v>
       </c>
@@ -7817,7 +7818,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" hidden="1">
       <c r="A381" t="s">
         <v>14</v>
       </c>
@@ -7833,7 +7834,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" hidden="1">
       <c r="A382" t="s">
         <v>14</v>
       </c>
@@ -7849,7 +7850,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" hidden="1">
       <c r="A383" t="s">
         <v>236</v>
       </c>
@@ -7865,7 +7866,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" hidden="1">
       <c r="A384" t="s">
         <v>14</v>
       </c>
@@ -7881,7 +7882,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" hidden="1">
       <c r="A385" t="s">
         <v>14</v>
       </c>
@@ -7897,7 +7898,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" hidden="1">
       <c r="A386" t="s">
         <v>14</v>
       </c>
@@ -7913,7 +7914,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" hidden="1">
       <c r="A387" t="s">
         <v>14</v>
       </c>
@@ -7929,7 +7930,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" hidden="1">
       <c r="A388" t="s">
         <v>14</v>
       </c>
@@ -7945,7 +7946,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" hidden="1">
       <c r="A389" t="s">
         <v>14</v>
       </c>
@@ -7961,7 +7962,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" hidden="1">
       <c r="A390" t="s">
         <v>14</v>
       </c>
@@ -7977,7 +7978,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" hidden="1">
       <c r="A391" t="s">
         <v>14</v>
       </c>
@@ -7993,7 +7994,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" hidden="1">
       <c r="A392" t="s">
         <v>14</v>
       </c>
@@ -8009,7 +8010,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" hidden="1">
       <c r="A393" t="s">
         <v>14</v>
       </c>
@@ -8025,7 +8026,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" hidden="1">
       <c r="A394" t="s">
         <v>14</v>
       </c>
@@ -8041,7 +8042,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" hidden="1">
       <c r="A395" t="s">
         <v>14</v>
       </c>
@@ -8057,7 +8058,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" hidden="1">
       <c r="A396" t="s">
         <v>14</v>
       </c>
@@ -8073,7 +8074,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" hidden="1">
       <c r="A397" t="s">
         <v>14</v>
       </c>
@@ -8089,7 +8090,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" hidden="1">
       <c r="A398" t="s">
         <v>296</v>
       </c>
@@ -8105,7 +8106,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" hidden="1">
       <c r="A399" t="s">
         <v>298</v>
       </c>
@@ -8121,7 +8122,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" hidden="1">
       <c r="A400" t="s">
         <v>300</v>
       </c>
@@ -8137,7 +8138,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="401" spans="1:5">
+    <row r="401" spans="1:5" hidden="1">
       <c r="A401" t="s">
         <v>302</v>
       </c>
@@ -8153,7 +8154,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" spans="1:5" hidden="1">
       <c r="A402" t="s">
         <v>304</v>
       </c>
@@ -8169,7 +8170,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" spans="1:5" hidden="1">
       <c r="A403" t="s">
         <v>305</v>
       </c>
@@ -8185,7 +8186,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" spans="1:5" hidden="1">
       <c r="A404" t="s">
         <v>305</v>
       </c>
@@ -8201,7 +8202,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="1:5" hidden="1">
       <c r="A405" t="s">
         <v>305</v>
       </c>
@@ -8217,7 +8218,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="406" spans="1:5">
+    <row r="406" spans="1:5" hidden="1">
       <c r="A406" t="s">
         <v>24</v>
       </c>
@@ -8233,7 +8234,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="407" spans="1:5">
+    <row r="407" spans="1:5" hidden="1">
       <c r="A407" t="s">
         <v>24</v>
       </c>
@@ -8249,7 +8250,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:5" hidden="1">
       <c r="A408" t="s">
         <v>24</v>
       </c>
@@ -8265,7 +8266,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="409" spans="1:5">
+    <row r="409" spans="1:5" hidden="1">
       <c r="A409" t="s">
         <v>24</v>
       </c>
@@ -8300,7 +8301,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" spans="1:5" hidden="1">
       <c r="A411" t="s">
         <v>24</v>
       </c>
@@ -8316,7 +8317,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="412" spans="1:5">
+    <row r="412" spans="1:5" hidden="1">
       <c r="A412" t="s">
         <v>24</v>
       </c>
@@ -8332,7 +8333,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="413" spans="1:5">
+    <row r="413" spans="1:5" hidden="1">
       <c r="A413" t="s">
         <v>24</v>
       </c>
@@ -8348,7 +8349,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="414" spans="1:5">
+    <row r="414" spans="1:5" hidden="1">
       <c r="A414" t="s">
         <v>24</v>
       </c>
@@ -8364,7 +8365,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="415" spans="1:5">
+    <row r="415" spans="1:5" hidden="1">
       <c r="A415" t="s">
         <v>24</v>
       </c>
@@ -8399,7 +8400,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="417" spans="1:5">
+    <row r="417" spans="1:5" hidden="1">
       <c r="A417" t="s">
         <v>24</v>
       </c>
@@ -8434,7 +8435,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="419" spans="1:5">
+    <row r="419" spans="1:5" hidden="1">
       <c r="A419" t="s">
         <v>24</v>
       </c>
@@ -8450,7 +8451,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="420" spans="1:5">
+    <row r="420" spans="1:5" hidden="1">
       <c r="A420" t="s">
         <v>24</v>
       </c>
@@ -8485,7 +8486,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="422" spans="1:5">
+    <row r="422" spans="1:5" hidden="1">
       <c r="A422" t="s">
         <v>24</v>
       </c>
@@ -8501,7 +8502,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="423" spans="1:5">
+    <row r="423" spans="1:5" hidden="1">
       <c r="A423" t="s">
         <v>24</v>
       </c>
@@ -8555,7 +8556,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="426" spans="1:5">
+    <row r="426" spans="1:5" hidden="1">
       <c r="A426" t="s">
         <v>24</v>
       </c>
@@ -8571,7 +8572,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="427" spans="1:5">
+    <row r="427" spans="1:5" hidden="1">
       <c r="A427" t="s">
         <v>24</v>
       </c>
@@ -8625,7 +8626,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="430" spans="1:5">
+    <row r="430" spans="1:5" hidden="1">
       <c r="A430" t="s">
         <v>24</v>
       </c>
@@ -8641,7 +8642,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="431" spans="1:5">
+    <row r="431" spans="1:5" hidden="1">
       <c r="A431" t="s">
         <v>24</v>
       </c>
@@ -8657,7 +8658,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="432" spans="1:5">
+    <row r="432" spans="1:5" hidden="1">
       <c r="A432" t="s">
         <v>24</v>
       </c>
@@ -8673,7 +8674,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="433" spans="1:5">
+    <row r="433" spans="1:5" hidden="1">
       <c r="A433" t="s">
         <v>24</v>
       </c>
@@ -8689,7 +8690,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="434" spans="1:5">
+    <row r="434" spans="1:5" hidden="1">
       <c r="A434" t="s">
         <v>24</v>
       </c>
@@ -8724,7 +8725,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="436" spans="1:5">
+    <row r="436" spans="1:5" hidden="1">
       <c r="A436" t="s">
         <v>24</v>
       </c>
@@ -8778,7 +8779,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="439" spans="1:5">
+    <row r="439" spans="1:5" hidden="1">
       <c r="A439" t="s">
         <v>24</v>
       </c>
@@ -8794,7 +8795,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="440" spans="1:5">
+    <row r="440" spans="1:5" hidden="1">
       <c r="A440" t="s">
         <v>24</v>
       </c>
@@ -8810,7 +8811,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="441" spans="1:5">
+    <row r="441" spans="1:5" hidden="1">
       <c r="A441" t="s">
         <v>24</v>
       </c>
@@ -8845,7 +8846,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="443" spans="1:5">
+    <row r="443" spans="1:5" hidden="1">
       <c r="A443" t="s">
         <v>24</v>
       </c>
@@ -8861,7 +8862,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="444" spans="1:5">
+    <row r="444" spans="1:5" hidden="1">
       <c r="A444" t="s">
         <v>24</v>
       </c>
@@ -8877,7 +8878,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="445" spans="1:5">
+    <row r="445" spans="1:5" hidden="1">
       <c r="A445" t="s">
         <v>24</v>
       </c>
@@ -8893,7 +8894,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="446" spans="1:5">
+    <row r="446" spans="1:5" hidden="1">
       <c r="A446" t="s">
         <v>24</v>
       </c>
@@ -8909,7 +8910,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="447" spans="1:5">
+    <row r="447" spans="1:5" hidden="1">
       <c r="A447" t="s">
         <v>24</v>
       </c>
@@ -8963,7 +8964,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="450" spans="1:6">
+    <row r="450" spans="1:6" hidden="1">
       <c r="A450" t="s">
         <v>308</v>
       </c>
@@ -8979,7 +8980,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="451" spans="1:6">
+    <row r="451" spans="1:6" hidden="1">
       <c r="A451" t="s">
         <v>308</v>
       </c>
@@ -8995,7 +8996,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="452" spans="1:6">
+    <row r="452" spans="1:6" hidden="1">
       <c r="A452" t="s">
         <v>308</v>
       </c>
@@ -9033,7 +9034,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="454" spans="1:6">
+    <row r="454" spans="1:6" hidden="1">
       <c r="A454" t="s">
         <v>308</v>
       </c>
@@ -9049,7 +9050,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="455" spans="1:6">
+    <row r="455" spans="1:6" hidden="1">
       <c r="A455" t="s">
         <v>308</v>
       </c>
@@ -9065,7 +9066,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="456" spans="1:6">
+    <row r="456" spans="1:6" hidden="1">
       <c r="A456" t="s">
         <v>25</v>
       </c>
@@ -9087,7 +9088,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="457" spans="1:6">
+    <row r="457" spans="1:6" hidden="1">
       <c r="A457" t="s">
         <v>25</v>
       </c>
@@ -9110,7 +9111,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F457" xr:uid="{EA9E70CC-4D98-5D46-8A30-85EFDC08FEFA}"/>
+  <autoFilter ref="A1:F457" xr:uid="{EA9E70CC-4D98-5D46-8A30-85EFDC08FEFA}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="f"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/res/parancsok/parancsok.xlsx
+++ b/res/parancsok/parancsok.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcellszabo/Development/python/spadmin/res/parancsok/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B342C5F9-36BB-E746-A3D0-37381497DBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C3109D-F599-1640-B4B4-519AF31294E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19500" xr2:uid="{08B205EA-7B00-9242-AF4A-92FAE1387DC6}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="327">
   <si>
     <t>DEVclass</t>
   </si>
@@ -1385,7 +1385,7 @@
   <dimension ref="A1:F457"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+      <selection activeCell="A77" sqref="A77:B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2206,7 +2206,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -2224,8 +2224,11 @@
       <c r="E49" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" hidden="1">
+      <c r="F49" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" hidden="1">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -2241,7 +2244,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1">
+    <row r="51" spans="1:6" hidden="1">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -2257,7 +2260,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1">
+    <row r="52" spans="1:6" hidden="1">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -2276,7 +2279,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1">
+    <row r="53" spans="1:6" hidden="1">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -2295,7 +2298,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1">
+    <row r="54" spans="1:6" hidden="1">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -2314,7 +2317,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1">
+    <row r="55" spans="1:6" hidden="1">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -2333,7 +2336,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1">
+    <row r="56" spans="1:6" hidden="1">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -2352,7 +2355,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1">
+    <row r="57" spans="1:6" hidden="1">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -2371,7 +2374,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1">
+    <row r="58" spans="1:6" hidden="1">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -2390,7 +2393,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1">
+    <row r="59" spans="1:6" hidden="1">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -2409,7 +2412,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1">
+    <row r="60" spans="1:6" hidden="1">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -2428,7 +2431,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1">
+    <row r="61" spans="1:6" hidden="1">
       <c r="A61" t="s">
         <v>71</v>
       </c>
@@ -2444,7 +2447,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1">
+    <row r="62" spans="1:6" hidden="1">
       <c r="A62" t="s">
         <v>75</v>
       </c>
@@ -2460,7 +2463,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1">
+    <row r="63" spans="1:6" hidden="1">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -2476,7 +2479,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>4</v>
       </c>

--- a/res/parancsok/parancsok.xlsx
+++ b/res/parancsok/parancsok.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcellszabo/Development/python/spadmin/res/parancsok/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Spadmin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C3109D-F599-1640-B4B4-519AF31294E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A825D31-8D6E-43E0-9020-F642636066D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19500" xr2:uid="{08B205EA-7B00-9242-AF4A-92FAE1387DC6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{08B205EA-7B00-9242-AF4A-92FAE1387DC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="327">
   <si>
     <t>DEVclass</t>
   </si>
@@ -1069,7 +1069,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1085,7 +1085,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1384,16 +1384,16 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F457"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:B77"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2498,7 +2498,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1">
+    <row r="65" spans="1:6" hidden="1">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1">
+    <row r="66" spans="1:6" hidden="1">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1">
+    <row r="67" spans="1:6" hidden="1">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1">
+    <row r="68" spans="1:6" hidden="1">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1">
+    <row r="69" spans="1:6" hidden="1">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1">
+    <row r="71" spans="1:6" hidden="1">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1">
+    <row r="73" spans="1:6" hidden="1">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1">
+    <row r="74" spans="1:6" hidden="1">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1">
+    <row r="75" spans="1:6" hidden="1">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1">
+    <row r="76" spans="1:6" hidden="1">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -2714,8 +2714,11 @@
       <c r="E77" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" hidden="1">
+      <c r="F77" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" hidden="1">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -2731,7 +2734,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1">
+    <row r="79" spans="1:6" hidden="1">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -2747,7 +2750,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -9134,11 +9137,11 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9538,9 +9541,9 @@
       <selection activeCell="A2" sqref="A2:A82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/res/parancsok/parancsok.xlsx
+++ b/res/parancsok/parancsok.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Spadmin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcellszabo/Development/python/spadmin/res/parancsok/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A825D31-8D6E-43E0-9020-F642636066D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F5F9EF-4E45-C24B-A0E0-DFB716297B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{08B205EA-7B00-9242-AF4A-92FAE1387DC6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19500" xr2:uid="{08B205EA-7B00-9242-AF4A-92FAE1387DC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$457</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$1:$A$96</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="327">
   <si>
     <t>DEVclass</t>
   </si>
@@ -1069,7 +1069,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1085,7 +1085,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1384,16 +1384,16 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F457"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="246" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2496,6 +2496,9 @@
       </c>
       <c r="E64" t="s">
         <v>324</v>
+      </c>
+      <c r="F64" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="65" spans="1:6" hidden="1">
@@ -9137,11 +9140,11 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9541,9 +9544,9 @@
       <selection activeCell="A2" sqref="A2:A82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
